--- a/natmiOut/OldD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H2">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I2">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J2">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="N2">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="O2">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="P2">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="Q2">
-        <v>53.36112152228219</v>
+        <v>54.310777712568</v>
       </c>
       <c r="R2">
-        <v>53.36112152228219</v>
+        <v>217.243110850272</v>
       </c>
       <c r="S2">
-        <v>0.06728205091544581</v>
+        <v>0.05974650241730517</v>
       </c>
       <c r="T2">
-        <v>0.06728205091544581</v>
+        <v>0.03726117965869746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H3">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I3">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J3">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="N3">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="P3">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="Q3">
-        <v>40.57382584877091</v>
+        <v>43.200745367258</v>
       </c>
       <c r="R3">
-        <v>40.57382584877091</v>
+        <v>259.204472203548</v>
       </c>
       <c r="S3">
-        <v>0.05115878637317445</v>
+        <v>0.0475245162419572</v>
       </c>
       <c r="T3">
-        <v>0.05115878637317445</v>
+        <v>0.04445832307092541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H4">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I4">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J4">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="N4">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="O4">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="P4">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="Q4">
-        <v>41.49002278214092</v>
+        <v>0.25495754751</v>
       </c>
       <c r="R4">
-        <v>41.49002278214092</v>
+        <v>1.52974528506</v>
       </c>
       <c r="S4">
-        <v>0.05231400213628085</v>
+        <v>0.0002804751169138828</v>
       </c>
       <c r="T4">
-        <v>0.05231400213628085</v>
+        <v>0.0002623793853603559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H5">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I5">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J5">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="N5">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="O5">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="P5">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="Q5">
-        <v>55.78898738160512</v>
+        <v>0.7790862791615001</v>
       </c>
       <c r="R5">
-        <v>55.78898738160512</v>
+        <v>4.674517674969001</v>
       </c>
       <c r="S5">
-        <v>0.0703433020605258</v>
+        <v>0.0008570615671820935</v>
       </c>
       <c r="T5">
-        <v>0.0703433020605258</v>
+        <v>0.0008017655529929482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.0782764656668</v>
+        <v>21.1407585</v>
       </c>
       <c r="H6">
-        <v>35.0782764656668</v>
+        <v>42.281517</v>
       </c>
       <c r="I6">
-        <v>0.4001570878199334</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J6">
-        <v>0.4001570878199334</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.52477890760023</v>
+        <v>2.055205</v>
       </c>
       <c r="N6">
-        <v>2.52477890760023</v>
+        <v>6.165615</v>
       </c>
       <c r="O6">
-        <v>0.2790649919610129</v>
+        <v>0.206178928973361</v>
       </c>
       <c r="P6">
-        <v>0.2790649919610129</v>
+        <v>0.2560074895378535</v>
       </c>
       <c r="Q6">
-        <v>88.56489253548507</v>
+        <v>43.4485925729925</v>
       </c>
       <c r="R6">
-        <v>88.56489253548507</v>
+        <v>260.691555437955</v>
       </c>
       <c r="S6">
-        <v>0.111669834495612</v>
+        <v>0.04779716937454366</v>
       </c>
       <c r="T6">
-        <v>0.111669834495612</v>
+        <v>0.04471338513180183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.0782764656668</v>
+        <v>21.1407585</v>
       </c>
       <c r="H7">
-        <v>35.0782764656668</v>
+        <v>42.281517</v>
       </c>
       <c r="I7">
-        <v>0.4001570878199334</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J7">
-        <v>0.4001570878199334</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91974862561398</v>
+        <v>3.2514585</v>
       </c>
       <c r="N7">
-        <v>1.91974862561398</v>
+        <v>6.502917</v>
       </c>
       <c r="O7">
-        <v>0.212190712288285</v>
+        <v>0.3261875244227855</v>
       </c>
       <c r="P7">
-        <v>0.212190712288285</v>
+        <v>0.2700128788195549</v>
       </c>
       <c r="Q7">
-        <v>67.34147303387105</v>
+        <v>68.73829892127225</v>
       </c>
       <c r="R7">
-        <v>67.34147303387105</v>
+        <v>274.953195685089</v>
       </c>
       <c r="S7">
-        <v>0.08490961749171748</v>
+        <v>0.07561801019304629</v>
       </c>
       <c r="T7">
-        <v>0.08490961749171748</v>
+        <v>0.04715951811800468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H8">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I8">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J8">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.96309843960945</v>
+        <v>2.569008</v>
       </c>
       <c r="N8">
-        <v>1.96309843960945</v>
+        <v>5.138016</v>
       </c>
       <c r="O8">
-        <v>0.2169821874775544</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="P8">
-        <v>0.2169821874775544</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="Q8">
-        <v>68.86210979393938</v>
+        <v>94.06841968472001</v>
       </c>
       <c r="R8">
-        <v>68.86210979393938</v>
+        <v>564.41051810832</v>
       </c>
       <c r="S8">
-        <v>0.086826960249817</v>
+        <v>0.103483310326168</v>
       </c>
       <c r="T8">
-        <v>0.086826960249817</v>
+        <v>0.09680676010475339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H9">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I9">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J9">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.63965326438341</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="N9">
-        <v>2.63965326438341</v>
+        <v>6.130444</v>
       </c>
       <c r="O9">
-        <v>0.2917621082731477</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="P9">
-        <v>0.2917621082731477</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="Q9">
-        <v>92.5944869815411</v>
+        <v>74.82540330037556</v>
       </c>
       <c r="R9">
-        <v>92.5944869815411</v>
+        <v>673.42862970338</v>
       </c>
       <c r="S9">
-        <v>0.1167506755827869</v>
+        <v>0.08231434583429277</v>
       </c>
       <c r="T9">
-        <v>0.1167506755827869</v>
+        <v>0.1155053665935693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.37349865053716</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H10">
-        <v>5.37349865053716</v>
+        <v>109.849895</v>
       </c>
       <c r="I10">
-        <v>0.06129843846540931</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J10">
-        <v>0.06129843846540931</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.52477890760023</v>
+        <v>0.01206</v>
       </c>
       <c r="N10">
-        <v>2.52477890760023</v>
+        <v>0.03618</v>
       </c>
       <c r="O10">
-        <v>0.2790649919610129</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="P10">
-        <v>0.2790649919610129</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="Q10">
-        <v>13.56689605289452</v>
+        <v>0.4415965779</v>
       </c>
       <c r="R10">
-        <v>13.56689605289452</v>
+        <v>3.9743692011</v>
       </c>
       <c r="S10">
-        <v>0.01710624823757209</v>
+        <v>0.0004857940195334486</v>
       </c>
       <c r="T10">
-        <v>0.01710624823757209</v>
+        <v>0.0006816772428482078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.37349865053716</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H11">
-        <v>5.37349865053716</v>
+        <v>109.849895</v>
       </c>
       <c r="I11">
-        <v>0.06129843846540931</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J11">
-        <v>0.06129843846540931</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.91974862561398</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="N11">
-        <v>1.91974862561398</v>
+        <v>0.110557</v>
       </c>
       <c r="O11">
-        <v>0.212190712288285</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="P11">
-        <v>0.212190712288285</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="Q11">
-        <v>10.31576664910729</v>
+        <v>1.349408315723889</v>
       </c>
       <c r="R11">
-        <v>10.31576664910729</v>
+        <v>12.144674841515</v>
       </c>
       <c r="S11">
-        <v>0.01300695932013481</v>
+        <v>0.001484464605239344</v>
       </c>
       <c r="T11">
-        <v>0.01300695932013481</v>
+        <v>0.00208303457538887</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.37349865053716</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H12">
-        <v>5.37349865053716</v>
+        <v>109.849895</v>
       </c>
       <c r="I12">
-        <v>0.06129843846540931</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J12">
-        <v>0.06129843846540931</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.96309843960945</v>
+        <v>2.055205</v>
       </c>
       <c r="N12">
-        <v>1.96309843960945</v>
+        <v>6.165615</v>
       </c>
       <c r="O12">
-        <v>0.2169821874775544</v>
+        <v>0.206178928973361</v>
       </c>
       <c r="P12">
-        <v>0.2169821874775544</v>
+        <v>0.2560074895378535</v>
       </c>
       <c r="Q12">
-        <v>10.54870681611298</v>
+        <v>75.25468448449168</v>
       </c>
       <c r="R12">
-        <v>10.54870681611298</v>
+        <v>677.292160360425</v>
       </c>
       <c r="S12">
-        <v>0.01330066926718278</v>
+        <v>0.08278659186693542</v>
       </c>
       <c r="T12">
-        <v>0.01330066926718278</v>
+        <v>0.1161680329923591</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.37349865053716</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H13">
-        <v>5.37349865053716</v>
+        <v>109.849895</v>
       </c>
       <c r="I13">
-        <v>0.06129843846540931</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J13">
-        <v>0.06129843846540931</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.63965326438341</v>
+        <v>3.2514585</v>
       </c>
       <c r="N13">
-        <v>2.63965326438341</v>
+        <v>6.502917</v>
       </c>
       <c r="O13">
-        <v>0.2917621082731477</v>
+        <v>0.3261875244227855</v>
       </c>
       <c r="P13">
-        <v>0.2917621082731477</v>
+        <v>0.2700128788195549</v>
       </c>
       <c r="Q13">
-        <v>14.18417325405026</v>
+        <v>119.0574582739525</v>
       </c>
       <c r="R13">
-        <v>14.18417325405026</v>
+        <v>714.344749643715</v>
       </c>
       <c r="S13">
-        <v>0.01788456164051963</v>
+        <v>0.1309733908840131</v>
       </c>
       <c r="T13">
-        <v>0.01788456164051963</v>
+        <v>0.1225232319245644</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.7265936720389</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H14">
-        <v>8.7265936720389</v>
+        <v>19.317583</v>
       </c>
       <c r="I14">
-        <v>0.09954902755295808</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J14">
-        <v>0.09954902755295808</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="N14">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="O14">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="P14">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="Q14">
-        <v>22.03271963836146</v>
+        <v>16.542341755888</v>
       </c>
       <c r="R14">
-        <v>22.03271963836146</v>
+        <v>99.25405053532802</v>
       </c>
       <c r="S14">
-        <v>0.0277806485737929</v>
+        <v>0.01819799132571321</v>
       </c>
       <c r="T14">
-        <v>0.0277806485737929</v>
+        <v>0.01702389085838145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.7265936720389</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H15">
-        <v>8.7265936720389</v>
+        <v>19.317583</v>
       </c>
       <c r="I15">
-        <v>0.09954902755295808</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J15">
-        <v>0.09954902755295808</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="N15">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="O15">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="P15">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="Q15">
-        <v>16.75286620818833</v>
+        <v>13.15837342187245</v>
       </c>
       <c r="R15">
-        <v>16.75286620818833</v>
+        <v>118.425360796852</v>
       </c>
       <c r="S15">
-        <v>0.02112337906406829</v>
+        <v>0.01447533661952662</v>
       </c>
       <c r="T15">
-        <v>0.02112337906406829</v>
+        <v>0.02031212233854846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.7265936720389</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H16">
-        <v>8.7265936720389</v>
+        <v>19.317583</v>
       </c>
       <c r="I16">
-        <v>0.09954902755295808</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J16">
-        <v>0.09954902755295808</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="N16">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="O16">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="P16">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="Q16">
-        <v>17.13116242068526</v>
+        <v>0.07765668366</v>
       </c>
       <c r="R16">
-        <v>17.13116242068526</v>
+        <v>0.69891015294</v>
       </c>
       <c r="S16">
-        <v>0.02160036575970418</v>
+        <v>8.542899647961442E-05</v>
       </c>
       <c r="T16">
-        <v>0.02160036575970418</v>
+        <v>0.0001198759153837281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.7265936720389</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H17">
-        <v>8.7265936720389</v>
+        <v>19.317583</v>
       </c>
       <c r="I17">
-        <v>0.09954902755295808</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J17">
-        <v>0.09954902755295808</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="N17">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="O17">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="P17">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="Q17">
-        <v>23.03518147334509</v>
+        <v>0.2372993359701111</v>
       </c>
       <c r="R17">
-        <v>23.03518147334509</v>
+        <v>2.135694023731</v>
       </c>
       <c r="S17">
-        <v>0.02904463415539272</v>
+        <v>0.0002610495733498267</v>
       </c>
       <c r="T17">
-        <v>0.02904463415539272</v>
+        <v>0.0003663107124676292</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.3210672706651</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H18">
-        <v>7.3210672706651</v>
+        <v>19.317583</v>
       </c>
       <c r="I18">
-        <v>0.08351541905516727</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J18">
-        <v>0.08351541905516727</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.52477890760023</v>
+        <v>2.055205</v>
       </c>
       <c r="N18">
-        <v>2.52477890760023</v>
+        <v>6.165615</v>
       </c>
       <c r="O18">
-        <v>0.2790649919610129</v>
+        <v>0.206178928973361</v>
       </c>
       <c r="P18">
-        <v>0.2790649919610129</v>
+        <v>0.2560074895378535</v>
       </c>
       <c r="Q18">
-        <v>18.48407622609763</v>
+        <v>13.23386438983833</v>
       </c>
       <c r="R18">
-        <v>18.48407622609763</v>
+        <v>119.104779508545</v>
       </c>
       <c r="S18">
-        <v>0.02330622974725088</v>
+        <v>0.01455838314343996</v>
       </c>
       <c r="T18">
-        <v>0.02330622974725088</v>
+        <v>0.020428655114114</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.3210672706651</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H19">
-        <v>7.3210672706651</v>
+        <v>19.317583</v>
       </c>
       <c r="I19">
-        <v>0.08351541905516727</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J19">
-        <v>0.08351541905516727</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.91974862561398</v>
+        <v>3.2514585</v>
       </c>
       <c r="N19">
-        <v>1.91974862561398</v>
+        <v>6.502917</v>
       </c>
       <c r="O19">
-        <v>0.212190712288285</v>
+        <v>0.3261875244227855</v>
       </c>
       <c r="P19">
-        <v>0.212190712288285</v>
+        <v>0.2700128788195549</v>
       </c>
       <c r="Q19">
-        <v>14.05460883088682</v>
+        <v>20.9367731482685</v>
       </c>
       <c r="R19">
-        <v>14.05460883088682</v>
+        <v>125.620638889611</v>
       </c>
       <c r="S19">
-        <v>0.01772119625637055</v>
+        <v>0.02303224185324315</v>
       </c>
       <c r="T19">
-        <v>0.01772119625637055</v>
+        <v>0.02154624455609195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.3210672706651</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H20">
-        <v>7.3210672706651</v>
+        <v>27.192869</v>
       </c>
       <c r="I20">
-        <v>0.08351541905516727</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J20">
-        <v>0.08351541905516727</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.96309843960945</v>
+        <v>2.569008</v>
       </c>
       <c r="N20">
-        <v>1.96309843960945</v>
+        <v>5.138016</v>
       </c>
       <c r="O20">
-        <v>0.2169821874775544</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="P20">
-        <v>0.2169821874775544</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="Q20">
-        <v>14.37197573531847</v>
+        <v>23.286232667984</v>
       </c>
       <c r="R20">
-        <v>14.37197573531847</v>
+        <v>139.717396007904</v>
       </c>
       <c r="S20">
-        <v>0.01812135831469483</v>
+        <v>0.02561684834915712</v>
       </c>
       <c r="T20">
-        <v>0.01812135831469483</v>
+        <v>0.02396409706029291</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.3210672706651</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H21">
-        <v>7.3210672706651</v>
+        <v>27.192869</v>
       </c>
       <c r="I21">
-        <v>0.08351541905516727</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J21">
-        <v>0.08351541905516727</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.63965326438341</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="N21">
-        <v>2.63965326438341</v>
+        <v>6.130444</v>
       </c>
       <c r="O21">
-        <v>0.2917621082731477</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="P21">
-        <v>0.2917621082731477</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="Q21">
-        <v>19.32507911978167</v>
+        <v>18.52270673375956</v>
       </c>
       <c r="R21">
-        <v>19.32507911978167</v>
+        <v>166.704360603836</v>
       </c>
       <c r="S21">
-        <v>0.02436663473685101</v>
+        <v>0.02037656224516754</v>
       </c>
       <c r="T21">
-        <v>0.02436663473685101</v>
+        <v>0.02859285666659861</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.0268607719549</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H22">
-        <v>10.0268607719549</v>
+        <v>27.192869</v>
       </c>
       <c r="I22">
-        <v>0.1143818856211051</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J22">
-        <v>0.1143818856211051</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.52477890760023</v>
+        <v>0.01206</v>
       </c>
       <c r="N22">
-        <v>2.52477890760023</v>
+        <v>0.03618</v>
       </c>
       <c r="O22">
-        <v>0.2790649919610129</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="P22">
-        <v>0.2790649919610129</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="Q22">
-        <v>25.31560658647589</v>
+        <v>0.10931533338</v>
       </c>
       <c r="R22">
-        <v>25.31560658647589</v>
+        <v>0.98383800042</v>
       </c>
       <c r="S22">
-        <v>0.03191997999133919</v>
+        <v>0.0001202562199459226</v>
       </c>
       <c r="T22">
-        <v>0.03191997999133919</v>
+        <v>0.0001687462693073353</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.0268607719549</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H23">
-        <v>10.0268607719549</v>
+        <v>27.192869</v>
       </c>
       <c r="I23">
-        <v>0.1143818856211051</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J23">
-        <v>0.1143818856211051</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>1.91974862561398</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="N23">
-        <v>1.91974862561398</v>
+        <v>0.110557</v>
       </c>
       <c r="O23">
-        <v>0.212190712288285</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="P23">
-        <v>0.212190712288285</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="Q23">
-        <v>19.24905218618315</v>
+        <v>0.3340402242258889</v>
       </c>
       <c r="R23">
-        <v>19.24905218618315</v>
+        <v>3.006362018033</v>
       </c>
       <c r="S23">
-        <v>0.02427077378281943</v>
+        <v>0.0003674728277656542</v>
       </c>
       <c r="T23">
-        <v>0.02427077378281943</v>
+        <v>0.0005156462491932301</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.0268607719549</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H24">
-        <v>10.0268607719549</v>
+        <v>27.192869</v>
       </c>
       <c r="I24">
-        <v>0.1143818856211051</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J24">
-        <v>0.1143818856211051</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.96309843960945</v>
+        <v>2.055205</v>
       </c>
       <c r="N24">
-        <v>1.96309843960945</v>
+        <v>6.165615</v>
       </c>
       <c r="O24">
-        <v>0.2169821874775544</v>
+        <v>0.206178928973361</v>
       </c>
       <c r="P24">
-        <v>0.2169821874775544</v>
+        <v>0.2560074895378535</v>
       </c>
       <c r="Q24">
-        <v>19.68371473560587</v>
+        <v>18.62897344438167</v>
       </c>
       <c r="R24">
-        <v>19.68371473560587</v>
+        <v>167.660760999435</v>
       </c>
       <c r="S24">
-        <v>0.02481883174987481</v>
+        <v>0.02049346471923382</v>
       </c>
       <c r="T24">
-        <v>0.02481883174987481</v>
+        <v>0.02875689688323234</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.0268607719549</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H25">
-        <v>10.0268607719549</v>
+        <v>27.192869</v>
       </c>
       <c r="I25">
-        <v>0.1143818856211051</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J25">
-        <v>0.1143818856211051</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.63965326438341</v>
+        <v>3.2514585</v>
       </c>
       <c r="N25">
-        <v>2.63965326438341</v>
+        <v>6.502917</v>
       </c>
       <c r="O25">
-        <v>0.2917621082731477</v>
+        <v>0.3261875244227855</v>
       </c>
       <c r="P25">
-        <v>0.2917621082731477</v>
+        <v>0.2700128788195549</v>
       </c>
       <c r="Q25">
-        <v>26.46743576820871</v>
+        <v>29.4721616831455</v>
       </c>
       <c r="R25">
-        <v>26.46743576820871</v>
+        <v>176.832970098873</v>
       </c>
       <c r="S25">
-        <v>0.03337230009707165</v>
+        <v>0.03242189954569152</v>
       </c>
       <c r="T25">
-        <v>0.03337230009707165</v>
+        <v>0.03033009904271003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.577169666666666</v>
+      </c>
+      <c r="H26">
+        <v>22.731509</v>
+      </c>
+      <c r="I26">
+        <v>0.08308915558448915</v>
+      </c>
+      <c r="J26">
+        <v>0.09389934990025395</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.569008</v>
+      </c>
+      <c r="N26">
+        <v>5.138016</v>
+      </c>
+      <c r="O26">
+        <v>0.2577238367773512</v>
+      </c>
+      <c r="P26">
+        <v>0.2133397199412101</v>
+      </c>
+      <c r="Q26">
+        <v>19.465809491024</v>
+      </c>
+      <c r="R26">
+        <v>116.794856946144</v>
+      </c>
+      <c r="S26">
+        <v>0.02141405597182482</v>
+      </c>
+      <c r="T26">
+        <v>0.02003246101038187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.577169666666666</v>
+      </c>
+      <c r="H27">
+        <v>22.731509</v>
+      </c>
+      <c r="I27">
+        <v>0.08308915558448915</v>
+      </c>
+      <c r="J27">
+        <v>0.09389934990025395</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.043481333333333</v>
+      </c>
+      <c r="N27">
+        <v>6.130444</v>
+      </c>
+      <c r="O27">
+        <v>0.2050028063787906</v>
+      </c>
+      <c r="P27">
+        <v>0.2545471259870097</v>
+      </c>
+      <c r="Q27">
+        <v>15.48380477333289</v>
+      </c>
+      <c r="R27">
+        <v>139.354242959996</v>
+      </c>
+      <c r="S27">
+        <v>0.01703351007446424</v>
+      </c>
+      <c r="T27">
+        <v>0.02390180964915825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.577169666666666</v>
+      </c>
+      <c r="H28">
+        <v>22.731509</v>
+      </c>
+      <c r="I28">
+        <v>0.08308915558448915</v>
+      </c>
+      <c r="J28">
+        <v>0.09389934990025395</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01206</v>
+      </c>
+      <c r="N28">
+        <v>0.03618</v>
+      </c>
+      <c r="O28">
+        <v>0.001209863679496076</v>
+      </c>
+      <c r="P28">
+        <v>0.001502259056311421</v>
+      </c>
+      <c r="Q28">
+        <v>0.09138066617999999</v>
+      </c>
+      <c r="R28">
+        <v>0.8224259956199999</v>
+      </c>
+      <c r="S28">
+        <v>0.000100526551501672</v>
+      </c>
+      <c r="T28">
+        <v>0.0001410611487694114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.577169666666666</v>
+      </c>
+      <c r="H29">
+        <v>22.731509</v>
+      </c>
+      <c r="I29">
+        <v>0.08308915558448915</v>
+      </c>
+      <c r="J29">
+        <v>0.09389934990025395</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.110557</v>
+      </c>
+      <c r="O29">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="P29">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="Q29">
+        <v>0.2792363822792222</v>
+      </c>
+      <c r="R29">
+        <v>2.513127440513</v>
+      </c>
+      <c r="S29">
+        <v>0.0003071839125033264</v>
+      </c>
+      <c r="T29">
+        <v>0.0004310474688916478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.577169666666666</v>
+      </c>
+      <c r="H30">
+        <v>22.731509</v>
+      </c>
+      <c r="I30">
+        <v>0.08308915558448915</v>
+      </c>
+      <c r="J30">
+        <v>0.09389934990025395</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.055205</v>
+      </c>
+      <c r="N30">
+        <v>6.165615</v>
+      </c>
+      <c r="O30">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P30">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q30">
+        <v>15.57263698478167</v>
+      </c>
+      <c r="R30">
+        <v>140.153732863035</v>
+      </c>
+      <c r="S30">
+        <v>0.01713123310771093</v>
+      </c>
+      <c r="T30">
+        <v>0.02403893683720051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.577169666666666</v>
+      </c>
+      <c r="H31">
+        <v>22.731509</v>
+      </c>
+      <c r="I31">
+        <v>0.08308915558448915</v>
+      </c>
+      <c r="J31">
+        <v>0.09389934990025395</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.2514585</v>
+      </c>
+      <c r="N31">
+        <v>6.502917</v>
+      </c>
+      <c r="O31">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P31">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q31">
+        <v>24.6368527186255</v>
+      </c>
+      <c r="R31">
+        <v>147.821116311753</v>
+      </c>
+      <c r="S31">
+        <v>0.02710264596648418</v>
+      </c>
+      <c r="T31">
+        <v>0.02535403378585225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>10.3552005</v>
+      </c>
+      <c r="H32">
+        <v>20.710401</v>
+      </c>
+      <c r="I32">
+        <v>0.1135522765496668</v>
+      </c>
+      <c r="J32">
+        <v>0.08555055408215835</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.569008</v>
+      </c>
+      <c r="N32">
+        <v>5.138016</v>
+      </c>
+      <c r="O32">
+        <v>0.2577238367773512</v>
+      </c>
+      <c r="P32">
+        <v>0.2133397199412101</v>
+      </c>
+      <c r="Q32">
+        <v>26.602592926104</v>
+      </c>
+      <c r="R32">
+        <v>106.410371704416</v>
+      </c>
+      <c r="S32">
+        <v>0.02926512838718297</v>
+      </c>
+      <c r="T32">
+        <v>0.01825133124870301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>10.3552005</v>
+      </c>
+      <c r="H33">
+        <v>20.710401</v>
+      </c>
+      <c r="I33">
+        <v>0.1135522765496668</v>
+      </c>
+      <c r="J33">
+        <v>0.08555055408215835</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.043481333333333</v>
+      </c>
+      <c r="N33">
+        <v>6.130444</v>
+      </c>
+      <c r="O33">
+        <v>0.2050028063787906</v>
+      </c>
+      <c r="P33">
+        <v>0.2545471259870097</v>
+      </c>
+      <c r="Q33">
+        <v>21.160658924674</v>
+      </c>
+      <c r="R33">
+        <v>126.963953548044</v>
+      </c>
+      <c r="S33">
+        <v>0.02327853536338222</v>
+      </c>
+      <c r="T33">
+        <v>0.02177664766820965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>10.3552005</v>
+      </c>
+      <c r="H34">
+        <v>20.710401</v>
+      </c>
+      <c r="I34">
+        <v>0.1135522765496668</v>
+      </c>
+      <c r="J34">
+        <v>0.08555055408215835</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.01206</v>
+      </c>
+      <c r="N34">
+        <v>0.03618</v>
+      </c>
+      <c r="O34">
+        <v>0.001209863679496076</v>
+      </c>
+      <c r="P34">
+        <v>0.001502259056311421</v>
+      </c>
+      <c r="Q34">
+        <v>0.12488371803</v>
+      </c>
+      <c r="R34">
+        <v>0.74930230818</v>
+      </c>
+      <c r="S34">
+        <v>0.0001373827751215359</v>
+      </c>
+      <c r="T34">
+        <v>0.0001285190946423824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>10.3552005</v>
+      </c>
+      <c r="H35">
+        <v>20.710401</v>
+      </c>
+      <c r="I35">
+        <v>0.1135522765496668</v>
+      </c>
+      <c r="J35">
+        <v>0.08555055408215835</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.110557</v>
+      </c>
+      <c r="O35">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="P35">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="Q35">
+        <v>0.3816133005595</v>
+      </c>
+      <c r="R35">
+        <v>2.289679803357</v>
+      </c>
+      <c r="S35">
+        <v>0.0004198072821755568</v>
+      </c>
+      <c r="T35">
+        <v>0.0003927220991259775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>10.3552005</v>
+      </c>
+      <c r="H36">
+        <v>20.710401</v>
+      </c>
+      <c r="I36">
+        <v>0.1135522765496668</v>
+      </c>
+      <c r="J36">
+        <v>0.08555055408215835</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.055205</v>
+      </c>
+      <c r="N36">
+        <v>6.165615</v>
+      </c>
+      <c r="O36">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="P36">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="Q36">
+        <v>21.2820598436025</v>
+      </c>
+      <c r="R36">
+        <v>127.692359061615</v>
+      </c>
+      <c r="S36">
+        <v>0.02341208676149719</v>
+      </c>
+      <c r="T36">
+        <v>0.02190158257914572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>10.3552005</v>
+      </c>
+      <c r="H37">
+        <v>20.710401</v>
+      </c>
+      <c r="I37">
+        <v>0.1135522765496668</v>
+      </c>
+      <c r="J37">
+        <v>0.08555055408215835</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.2514585</v>
+      </c>
+      <c r="N37">
+        <v>6.502917</v>
+      </c>
+      <c r="O37">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="P37">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="Q37">
+        <v>33.66950468492925</v>
+      </c>
+      <c r="R37">
+        <v>134.678018739717</v>
+      </c>
+      <c r="S37">
+        <v>0.03703933598030733</v>
+      </c>
+      <c r="T37">
+        <v>0.0230997513923316</v>
       </c>
     </row>
   </sheetData>
